--- a/cicat/example/INFRASTRUCTURE.fake.xlsx
+++ b/cicat/example/INFRASTRUCTURE.fake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" state="visible" r:id="rId2"/>
@@ -2505,9 +2505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2521,7 +2521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8478000" cy="6701400"/>
+          <a:ext cx="8485920" cy="6701040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,10 +2564,10 @@
   <dimension ref="C4:C43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="1" sqref="A1:F29 C43"/>
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.42"/>
   </cols>
@@ -2625,16 +2625,16 @@
   </sheetPr>
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="47" width="9.13"/>
   </cols>
@@ -3757,10 +3757,10 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="8.14"/>
@@ -4296,10 +4296,10 @@
   <dimension ref="A1:A240"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A265" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.99"/>
   </cols>
@@ -5523,10 +5523,10 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="7.57"/>
@@ -5790,10 +5790,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R25" activeCellId="1" sqref="A1:F29 R25"/>
+      <selection pane="topLeft" activeCell="R25" activeCellId="0" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.57"/>
   </cols>
@@ -5817,10 +5817,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.86"/>
@@ -5905,10 +5905,10 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A94" activeCellId="1" sqref="A1:F29 A94"/>
+      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="20.86"/>
@@ -6998,10 +6998,10 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="50.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="23.28"/>
@@ -7531,10 +7531,10 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="50.57"/>
@@ -8071,10 +8071,10 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E22" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:F29"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="25.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="22.01"/>
@@ -8442,11 +8442,11 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="A1:F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="51.33"/>
@@ -8623,13 +8623,13 @@
         <v>231</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
         <v>232</v>
       </c>
@@ -8640,13 +8640,13 @@
         <v>232</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
         <v>233</v>
       </c>
@@ -8657,13 +8657,13 @@
         <v>233</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
         <v>234</v>
       </c>
@@ -8674,13 +8674,13 @@
         <v>234</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
         <v>235</v>
       </c>
@@ -8691,13 +8691,13 @@
         <v>235</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>236</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>236</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>223</v>
